--- a/s_pics/matches.xlsx
+++ b/s_pics/matches.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="A1:D8"/>
@@ -1873,6 +1873,759 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>iphone 12 rojo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>apple iphone 8 - smartphone (11,9 cm (4.7"), 1334 x 750 pixeles, 64 gb, 12 mp, ios 11, rojo) (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-Smartphone-Pixeles-Reacondicionado/dp/B07GNJ3DKM/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+rojo&amp;qid=1630696499&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 (64 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06703171B6CUFL8DJTDF&amp;url=%2FNuevo-Apple-iPhone-12-64-GB%2Fdp%2FB08L5Q2H5R%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bblanco%26qid%3D1630696516%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630696516&amp;id=7427909176769407&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0669793V6H8WQO56MTQ&amp;url=%2FNuevo-Apple-iPhone-Mini-64-GB%2Fdp%2FB08L5QR2JN%2Fref%3Dsr_1_3_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bblanco%26qid%3D1630696516%26s%3Delectronics%26sr%3D1-3-spons%26psc%3D1&amp;qualifier=1630696516&amp;id=7427909176769407&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 (128 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-12-128-GB/dp/B08L5R9DSN/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 (64 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-12-64-GB/dp/B08L5Q2H5R/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 (256 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-12-256-GB/dp/B08L5Q9TWV/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-64-GB/dp/B08L5QR2JN/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (256 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-256-GB/dp/B08L5R2339/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (128 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-128-GB/dp/B08L5SRFZ1/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>apple iphone 11 (128 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-11-128-GB-Blanco/dp/B08L6ZN6NN/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>apple iphone xr (128 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-XR-128-GB-Blanco/dp/B08L71BVYB/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+blanco&amp;qid=1630696516&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>iphone 12 mini negro</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (128 gb) - en negro</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-128-GB/dp/B08L5S9ZP8/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+negro&amp;qid=1630696533&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>iphone 12 mini negro</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - en negro</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-64-GB/dp/B08L5RTNY1/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+negro&amp;qid=1630696533&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>iphone 12 mini negro</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (256 gb) - en negro</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-256-GB/dp/B08L5QQFRH/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+negro&amp;qid=1630696533&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>iphone 12 mini negro</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>apple iphone 12 mini, 64gb, negro - (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-mini-64GB-Negro/dp/B08PCF2P4R/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+negro&amp;qid=1630696533&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>iphone 12 mini azul</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - azul</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06694812BMRPE1VFB6V9&amp;url=%2FNuevo-Apple-iPhone-Mini-64-GB%2Fdp%2FB08L5STJSZ%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bmini%2Bazul%26qid%3D1630696546%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630696546&amp;id=5300258364960328&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>iphone 12 mini azul</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (128 gb) - azul</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-128-GB/dp/B08L5T16Y7/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+azul&amp;qid=1630696546&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>iphone 12 mini azul</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - azul</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-64-GB/dp/B08L5STJSZ/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+azul&amp;qid=1630696546&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>iphone 12 mini azul</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (256 gb) - azul</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-256-GB/dp/B08L5RD8ZB/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+azul&amp;qid=1630696546&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>iphone 12 mini azul</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>apple iphone 12 mini, 64gb, azul - (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-mini-64GB-Azul/dp/B08PCD1417/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+azul&amp;qid=1630696546&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>iphone 12 mini verde</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - de en verde</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A066932525Q4SWGEBUB93&amp;url=%2FNuevo-Apple-iPhone-64-GB-Verde%2Fdp%2FB08L5PYFCP%2Fref%3Dice_ac_b_dpb_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bmini%2Bverde%26qid%3D1630696563%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630696563&amp;id=504804413109144&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>iphone 12 mini verde</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (128 gb) - de en verde</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-128-GB-Verde/dp/B08L5PMY23/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+verde&amp;qid=1630696563&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>iphone 12 mini verde</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - de en verde</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-64-GB-Verde/dp/B08L5PYFCP/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+verde&amp;qid=1630696563&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>iphone 12 mini verde</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (256 gb) - de en verde</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-256-GB-Verde/dp/B08L5S8JC7/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+verde&amp;qid=1630696563&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>iphone 12 mini blanco</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0669793V6H8WQO56MTQ&amp;url=%2FNuevo-Apple-iPhone-Mini-64-GB%2Fdp%2FB08L5QR2JN%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bmini%2Bblanco%26qid%3D1630696635%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630696635&amp;id=4187312344071172&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>iphone 12 mini blanco</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (128 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-128-GB/dp/B08L5SRFZ1/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+blanco&amp;qid=1630696635&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>iphone 12 mini blanco</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (64 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-64-GB/dp/B08L5QR2JN/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+blanco&amp;qid=1630696635&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>iphone 12 mini blanco</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>nuevo apple iphone 12 mini (256 gb) - en blanco</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Mini-256-GB/dp/B08L5R2339/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+mini+blanco&amp;qid=1630696635&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>iphone xr negro</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>apple iphone xr 64 gb negro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-XR-Negro-Reacondicionado/dp/B07N9HM3ZR/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+negro&amp;qid=1630696656&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>iphone xr negro</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>apple iphone xr (64 gb) - en negro</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-XR-64-GB-Negro/dp/B08L71C8RL/ref=ice_ac_b_dpb?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+negro&amp;qid=1630696656&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>iphone xr negro</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>apple iphone xr (128 gb) - en negro</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-XR-128-GB-Negro/dp/B08L6YKG6X/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+negro&amp;qid=1630696656&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>iphone xr negro</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>apple iphone xr 128 gb negro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-128-Negro-Reacondicionado/dp/B07N9N5NKJ/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xr+negro&amp;qid=1630696656&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>############################################################################</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
